--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value8.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value8.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.040304820276015</v>
+        <v>3.084564685821533</v>
       </c>
       <c r="B1">
-        <v>2.471818751496402</v>
+        <v>6.216755390167236</v>
       </c>
       <c r="C1">
-        <v>2.523367274956815</v>
+        <v>6.211811065673828</v>
       </c>
       <c r="D1">
-        <v>0.6749984872122758</v>
+        <v>6.584945678710938</v>
       </c>
       <c r="E1">
-        <v>0.5197141067062823</v>
+        <v>5.333799362182617</v>
       </c>
     </row>
   </sheetData>
